--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2052,28 +2052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>627.1150757039688</v>
+        <v>679.187496726873</v>
       </c>
       <c r="AB2" t="n">
-        <v>858.046512942717</v>
+        <v>929.2942966593366</v>
       </c>
       <c r="AC2" t="n">
-        <v>776.1557580233078</v>
+        <v>840.6037532589056</v>
       </c>
       <c r="AD2" t="n">
-        <v>627115.0757039689</v>
+        <v>679187.496726873</v>
       </c>
       <c r="AE2" t="n">
-        <v>858046.5129427169</v>
+        <v>929294.2966593367</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.124223148906038e-06</v>
+        <v>3.591104629108558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.537500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>776155.7580233079</v>
+        <v>840603.7532589056</v>
       </c>
     </row>
     <row r="3">
@@ -2158,28 +2158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.0844959842588</v>
+        <v>229.9135539019712</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.0786315624851</v>
+        <v>314.5778675186667</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.7756884801268</v>
+        <v>284.5549973555883</v>
       </c>
       <c r="AD3" t="n">
-        <v>209084.4959842588</v>
+        <v>229913.5539019712</v>
       </c>
       <c r="AE3" t="n">
-        <v>286078.6315624851</v>
+        <v>314577.8675186667</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.018532440063576e-06</v>
+        <v>6.793528474241079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.041666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>258775.6884801268</v>
+        <v>284554.9973555884</v>
       </c>
     </row>
     <row r="4">
@@ -2264,28 +2264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.5759007885822</v>
+        <v>219.7340125477527</v>
       </c>
       <c r="AB4" t="n">
-        <v>258.0178668404103</v>
+        <v>300.6497699481624</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.3930037595872</v>
+        <v>271.956177869001</v>
       </c>
       <c r="AD4" t="n">
-        <v>188575.9007885822</v>
+        <v>219734.0125477527</v>
       </c>
       <c r="AE4" t="n">
-        <v>258017.8668404103</v>
+        <v>300649.7699481624</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.144576585428236e-06</v>
+        <v>7.006612355811699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.888888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>233393.0037595872</v>
+        <v>271956.1778690009</v>
       </c>
     </row>
   </sheetData>
@@ -2561,28 +2561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.9953613876185</v>
+        <v>411.1870405624668</v>
       </c>
       <c r="AB2" t="n">
-        <v>507.6122206107488</v>
+        <v>562.6042491895201</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.1664227138843</v>
+        <v>508.9100892668945</v>
       </c>
       <c r="AD2" t="n">
-        <v>370995.3613876185</v>
+        <v>411187.0405624668</v>
       </c>
       <c r="AE2" t="n">
-        <v>507612.2206107488</v>
+        <v>562604.2491895201</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.848980906301238e-06</v>
+        <v>4.93383951402352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.356944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>459166.4227138843</v>
+        <v>508910.0892668945</v>
       </c>
     </row>
     <row r="3">
@@ -2667,28 +2667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.4044878338339</v>
+        <v>212.5857130301049</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.2563085410607</v>
+        <v>290.8691511874039</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.1314959365283</v>
+        <v>263.1090076355814</v>
       </c>
       <c r="AD3" t="n">
-        <v>192404.4878338339</v>
+        <v>212585.7130301049</v>
       </c>
       <c r="AE3" t="n">
-        <v>263256.3085410607</v>
+        <v>290869.1511874039</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.142627708336104e-06</v>
+        <v>7.174165412646764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.059722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>238131.4959365283</v>
+        <v>263109.0076355814</v>
       </c>
     </row>
     <row r="4">
@@ -2773,28 +2773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.4825796771118</v>
+        <v>212.6638048733828</v>
       </c>
       <c r="AB4" t="n">
-        <v>263.3631572462025</v>
+        <v>290.9759998925458</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.2281471512145</v>
+        <v>263.2056588502676</v>
       </c>
       <c r="AD4" t="n">
-        <v>192482.5796771118</v>
+        <v>212663.8048733828</v>
       </c>
       <c r="AE4" t="n">
-        <v>263363.1572462025</v>
+        <v>290975.9998925457</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.153040870881649e-06</v>
+        <v>7.192198833902599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.047222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>238228.1471512145</v>
+        <v>263205.6588502676</v>
       </c>
     </row>
   </sheetData>
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.1147001845403</v>
+        <v>229.3755456766654</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.5422494636255</v>
+        <v>313.8417409295558</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.1494453043831</v>
+        <v>283.8891256549819</v>
       </c>
       <c r="AD2" t="n">
-        <v>202114.7001845402</v>
+        <v>229375.5456766654</v>
       </c>
       <c r="AE2" t="n">
-        <v>276542.2494636255</v>
+        <v>313841.7409295558</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.797242592078378e-06</v>
+        <v>7.185200111780728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.159722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>250149.4453043831</v>
+        <v>283889.1256549819</v>
       </c>
     </row>
     <row r="3">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.6959754572005</v>
+        <v>229.9568209493257</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.3375759357342</v>
+        <v>314.6370674016645</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.8688669342416</v>
+        <v>284.6085472848404</v>
       </c>
       <c r="AD3" t="n">
-        <v>202695.9754572005</v>
+        <v>229956.8209493257</v>
       </c>
       <c r="AE3" t="n">
-        <v>277337.5759357341</v>
+        <v>314637.0674016644</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.804483774900648e-06</v>
+        <v>7.198901987908563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.147222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>250868.8669342416</v>
+        <v>284608.5472848404</v>
       </c>
     </row>
   </sheetData>
@@ -3473,28 +3473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.9854152258919</v>
+        <v>217.4753075628089</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.578182560039</v>
+        <v>297.5593101407327</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.8998437333428</v>
+        <v>269.1606672081037</v>
       </c>
       <c r="AD2" t="n">
-        <v>188985.4152258919</v>
+        <v>217475.3075628089</v>
       </c>
       <c r="AE2" t="n">
-        <v>258578.182560039</v>
+        <v>297559.3101407327</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.002109648836697e-06</v>
+        <v>7.290974622897646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>233899.8437333428</v>
+        <v>269160.6672081037</v>
       </c>
     </row>
     <row r="3">
@@ -3579,28 +3579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.3039285592846</v>
+        <v>215.7938208962016</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.2774983208318</v>
+        <v>295.2586259015255</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.8187335688943</v>
+        <v>267.0795570436551</v>
       </c>
       <c r="AD3" t="n">
-        <v>187303.9285592846</v>
+        <v>215793.8208962016</v>
       </c>
       <c r="AE3" t="n">
-        <v>256277.4983208318</v>
+        <v>295258.6259015255</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.03771331329177e-06</v>
+        <v>7.35583676731679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.541666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>231818.7335688943</v>
+        <v>267079.5570436551</v>
       </c>
     </row>
   </sheetData>
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.2886547627637</v>
+        <v>249.4139137764608</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.1991911945134</v>
+        <v>341.259120194091</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.2166718946448</v>
+        <v>308.689828723052</v>
       </c>
       <c r="AD2" t="n">
-        <v>214288.6547627636</v>
+        <v>249413.9137764608</v>
       </c>
       <c r="AE2" t="n">
-        <v>293199.1911945134</v>
+        <v>341259.120194091</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.49077231060215e-06</v>
+        <v>6.840789000309212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.958333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>265216.6718946449</v>
+        <v>308689.828723052</v>
       </c>
     </row>
     <row r="3">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.9682211124036</v>
+        <v>251.0934801261008</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.4972479713276</v>
+        <v>343.5571769709051</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.2954053580235</v>
+        <v>310.7685621864307</v>
       </c>
       <c r="AD3" t="n">
-        <v>215968.2211124036</v>
+        <v>251093.4801261008</v>
       </c>
       <c r="AE3" t="n">
-        <v>295497.2479713276</v>
+        <v>343557.1769709051</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.49077231060215e-06</v>
+        <v>6.840789000309212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.958333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>267295.4053580235</v>
+        <v>310768.5621864307</v>
       </c>
     </row>
   </sheetData>
@@ -4279,28 +4279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.4514294084367</v>
+        <v>458.154255368501</v>
       </c>
       <c r="AB2" t="n">
-        <v>571.1754623739071</v>
+        <v>626.8668645344155</v>
       </c>
       <c r="AC2" t="n">
-        <v>516.6632778947369</v>
+        <v>567.0395707964203</v>
       </c>
       <c r="AD2" t="n">
-        <v>417451.4294084367</v>
+        <v>458154.255368501</v>
       </c>
       <c r="AE2" t="n">
-        <v>571175.4623739071</v>
+        <v>626866.8645344155</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.65304017478124e-06</v>
+        <v>4.564505762894671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.829166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>516663.2778947368</v>
+        <v>567039.5707964203</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.1918879384158</v>
+        <v>214.5433904269987</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.7019082186758</v>
+        <v>293.547731768464</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.3436910133333</v>
+        <v>265.5319482453975</v>
       </c>
       <c r="AD3" t="n">
-        <v>194191.8879384158</v>
+        <v>214543.3904269987</v>
       </c>
       <c r="AE3" t="n">
-        <v>265701.9082186758</v>
+        <v>293547.731768464</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.143103834589882e-06</v>
+        <v>7.128132287260173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.013888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>240343.6910133333</v>
+        <v>265531.9482453975</v>
       </c>
     </row>
     <row r="4">
@@ -4491,28 +4491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.9308357820418</v>
+        <v>213.372614397518</v>
       </c>
       <c r="AB4" t="n">
-        <v>250.2940398557739</v>
+        <v>291.9458243539362</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.4063279819029</v>
+        <v>264.0829246262205</v>
       </c>
       <c r="AD4" t="n">
-        <v>182930.8357820417</v>
+        <v>213372.614397518</v>
       </c>
       <c r="AE4" t="n">
-        <v>250294.0398557739</v>
+        <v>291945.8243539362</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.165986474352074e-06</v>
+        <v>7.167501438944196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.986111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>226406.3279819029</v>
+        <v>264082.9246262205</v>
       </c>
     </row>
   </sheetData>
@@ -4788,28 +4788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.7636296566893</v>
+        <v>271.2335315883774</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.950443370281</v>
+        <v>371.1136838981163</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.0330677224205</v>
+        <v>335.6951147682059</v>
       </c>
       <c r="AD2" t="n">
-        <v>236763.6296566893</v>
+        <v>271233.5315883774</v>
       </c>
       <c r="AE2" t="n">
-        <v>323950.443370281</v>
+        <v>371113.6838981163</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.236435091412086e-06</v>
+        <v>6.48795318921145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.680555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>293033.0677224204</v>
+        <v>335695.1147682059</v>
       </c>
     </row>
   </sheetData>
@@ -5085,28 +5085,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.5579874763019</v>
+        <v>280.9154913632294</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.1927364200679</v>
+        <v>384.3609683999881</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.3434647337789</v>
+        <v>347.6780970298997</v>
       </c>
       <c r="AD2" t="n">
-        <v>251557.9874763019</v>
+        <v>280915.4913632293</v>
       </c>
       <c r="AE2" t="n">
-        <v>344192.736420068</v>
+        <v>384360.9683999881</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.522928449087304e-06</v>
+        <v>6.239368061225138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.130555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>311343.4647337789</v>
+        <v>347678.0970298997</v>
       </c>
     </row>
     <row r="3">
@@ -5191,28 +5191,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.022936936415</v>
+        <v>207.6515299335957</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.2612773028321</v>
+        <v>284.1179841939684</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.7086220655952</v>
+        <v>257.0021625446748</v>
       </c>
       <c r="AD3" t="n">
-        <v>188022.936936415</v>
+        <v>207651.5299335957</v>
       </c>
       <c r="AE3" t="n">
-        <v>257261.2773028321</v>
+        <v>284117.9841939684</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.129027009997501e-06</v>
+        <v>7.312813649902173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.230555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>232708.6220655952</v>
+        <v>257002.1625446748</v>
       </c>
     </row>
   </sheetData>
@@ -5488,28 +5488,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.7653466784295</v>
+        <v>359.6887725991604</v>
       </c>
       <c r="AB2" t="n">
-        <v>437.5170543768979</v>
+        <v>492.1420470188875</v>
       </c>
       <c r="AC2" t="n">
-        <v>395.7610407662085</v>
+        <v>445.1727007771051</v>
       </c>
       <c r="AD2" t="n">
-        <v>319765.3466784295</v>
+        <v>359688.7725991604</v>
       </c>
       <c r="AE2" t="n">
-        <v>437517.0543768979</v>
+        <v>492142.0470188875</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.060536149764883e-06</v>
+        <v>5.337307801608448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.913888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>395761.0407662085</v>
+        <v>445172.7007771052</v>
       </c>
     </row>
     <row r="3">
@@ -5594,28 +5594,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.7431091392198</v>
+        <v>210.7475820354219</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.9831369162357</v>
+        <v>288.3541392678637</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.0752726211595</v>
+        <v>260.8340249237999</v>
       </c>
       <c r="AD3" t="n">
-        <v>190743.1091392198</v>
+        <v>210747.5820354219</v>
       </c>
       <c r="AE3" t="n">
-        <v>260983.1369162357</v>
+        <v>288354.1392678636</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.145107649101644e-06</v>
+        <v>7.228705792531368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>236075.2726211595</v>
+        <v>260834.0249237999</v>
       </c>
     </row>
     <row r="4">
@@ -5700,28 +5700,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.7217991422665</v>
+        <v>210.7262720384685</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.9539796382734</v>
+        <v>288.3249819899014</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.0488980728835</v>
+        <v>260.8076503755238</v>
       </c>
       <c r="AD4" t="n">
-        <v>190721.7991422664</v>
+        <v>210726.2720384685</v>
       </c>
       <c r="AE4" t="n">
-        <v>260953.9796382734</v>
+        <v>288324.9819899014</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.155924417812545e-06</v>
+        <v>7.247569292651544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.091666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>236048.8980728835</v>
+        <v>260807.6503755238</v>
       </c>
     </row>
   </sheetData>
@@ -5997,28 +5997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.7673041146234</v>
+        <v>594.3690898792985</v>
       </c>
       <c r="AB2" t="n">
-        <v>742.6381706931182</v>
+        <v>813.2420104864668</v>
       </c>
       <c r="AC2" t="n">
-        <v>671.7618259813852</v>
+        <v>735.6273343979681</v>
       </c>
       <c r="AD2" t="n">
-        <v>542767.3041146233</v>
+        <v>594369.0898792985</v>
       </c>
       <c r="AE2" t="n">
-        <v>742638.1706931182</v>
+        <v>813242.0104864668</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.293695771223363e-06</v>
+        <v>3.899130793230014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.904166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>671761.8259813852</v>
+        <v>735627.334397968</v>
       </c>
     </row>
     <row r="3">
@@ -6103,28 +6103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.1515003955754</v>
+        <v>221.0784355125514</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.1736717332461</v>
+        <v>302.4892687603543</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.3430616591427</v>
+        <v>273.6201174963106</v>
       </c>
       <c r="AD3" t="n">
-        <v>190151.5003955754</v>
+        <v>221078.4355125514</v>
       </c>
       <c r="AE3" t="n">
-        <v>260173.6717332461</v>
+        <v>302489.2687603543</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.099330492011392e-06</v>
+        <v>6.968590147638998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.981944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>235343.0616591427</v>
+        <v>273620.1174963106</v>
       </c>
     </row>
     <row r="4">
@@ -6209,28 +6209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.2555163152491</v>
+        <v>218.1824514322252</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.2112585527451</v>
+        <v>298.5268555798533</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.7588156313056</v>
+        <v>270.0358714684735</v>
       </c>
       <c r="AD4" t="n">
-        <v>187255.5163152491</v>
+        <v>218182.4514322252</v>
       </c>
       <c r="AE4" t="n">
-        <v>256211.2585527451</v>
+        <v>298526.8555798533</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.143739783132654e-06</v>
+        <v>7.044082999258146e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.929166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>231758.8156313056</v>
+        <v>270035.8714684735</v>
       </c>
     </row>
     <row r="5">
@@ -6315,28 +6315,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.2044474850078</v>
+        <v>218.1313826019839</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.1413839262112</v>
+        <v>298.4569809533194</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.6956097410584</v>
+        <v>269.9726655782263</v>
       </c>
       <c r="AD5" t="n">
-        <v>187204.4474850078</v>
+        <v>218131.3826019838</v>
       </c>
       <c r="AE5" t="n">
-        <v>256141.3839262112</v>
+        <v>298456.9809533194</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.155062681862248e-06</v>
+        <v>7.063331176657731e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.915277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>231695.6097410584</v>
+        <v>269972.6655782263</v>
       </c>
     </row>
   </sheetData>
@@ -6612,28 +6612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.624929202898</v>
+        <v>224.4493682863596</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.662658498058</v>
+        <v>307.1015276965345</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.1173100379823</v>
+        <v>277.7921889129694</v>
       </c>
       <c r="AD2" t="n">
-        <v>195624.929202898</v>
+        <v>224449.3682863596</v>
       </c>
       <c r="AE2" t="n">
-        <v>267662.658498058</v>
+        <v>307101.5276965345</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.95377158618656e-06</v>
+        <v>7.129585790175052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.588888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>242117.3100379823</v>
+        <v>277792.1889129694</v>
       </c>
     </row>
     <row r="3">
@@ -6718,28 +6718,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.1976914390555</v>
+        <v>215.8515383219249</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.1321400060835</v>
+        <v>295.3375974297132</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.6872480476938</v>
+        <v>267.1509916400299</v>
       </c>
       <c r="AD3" t="n">
-        <v>187197.6914390555</v>
+        <v>215851.5383219249</v>
       </c>
       <c r="AE3" t="n">
-        <v>256132.1400060835</v>
+        <v>295337.5974297132</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.076904375294852e-06</v>
+        <v>7.351623347073435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.419444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>231687.2480476938</v>
+        <v>267150.9916400299</v>
       </c>
     </row>
   </sheetData>
@@ -7015,28 +7015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.591778904333</v>
+        <v>217.3469404027613</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.4078360957591</v>
+        <v>297.3836725291962</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.6503163000401</v>
+        <v>269.0017922037033</v>
       </c>
       <c r="AD2" t="n">
-        <v>189591.778904333</v>
+        <v>217346.9404027613</v>
       </c>
       <c r="AE2" t="n">
-        <v>259407.8360957591</v>
+        <v>297383.6725291963</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.898781039089308e-06</v>
+        <v>7.27387920189488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>234650.3163000401</v>
+        <v>269001.7922037033</v>
       </c>
     </row>
     <row r="3">
@@ -7121,28 +7121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.0421547796269</v>
+        <v>217.7973162780553</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.0240602375174</v>
+        <v>297.9998966709545</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.2077288745852</v>
+        <v>269.5592047782483</v>
       </c>
       <c r="AD3" t="n">
-        <v>190042.1547796269</v>
+        <v>217797.3162780553</v>
       </c>
       <c r="AE3" t="n">
-        <v>260024.0602375174</v>
+        <v>297999.8966709545</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.906901082907703e-06</v>
+        <v>7.289028608146968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.891666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>235207.7288745852</v>
+        <v>269559.2047782483</v>
       </c>
     </row>
   </sheetData>
@@ -12159,28 +12159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.6590241046104</v>
+        <v>233.4742406980676</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.7599939324845</v>
+        <v>319.449756279498</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.7737769677952</v>
+        <v>288.9619198908263</v>
       </c>
       <c r="AD2" t="n">
-        <v>206659.0241046104</v>
+        <v>233474.2406980676</v>
       </c>
       <c r="AE2" t="n">
-        <v>282759.9939324845</v>
+        <v>319449.756279498</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.667289120412521e-06</v>
+        <v>7.052332974864547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.491666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>255773.7769677952</v>
+        <v>288961.9198908263</v>
       </c>
     </row>
     <row r="3">
@@ -12265,28 +12265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.5552068067341</v>
+        <v>234.3704234001912</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.98619064232</v>
+        <v>320.6759529893336</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.8829471846223</v>
+        <v>290.0710901076534</v>
       </c>
       <c r="AD3" t="n">
-        <v>207555.2068067341</v>
+        <v>234370.4234001912</v>
       </c>
       <c r="AE3" t="n">
-        <v>283986.19064232</v>
+        <v>320675.9529893335</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.673288985752325e-06</v>
+        <v>7.063870938409644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.481944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>256882.9471846223</v>
+        <v>290071.0901076534</v>
       </c>
     </row>
   </sheetData>
@@ -12562,28 +12562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.7133424834539</v>
+        <v>312.6383353793954</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.4019382156362</v>
+        <v>427.7655630960118</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.0512970947205</v>
+        <v>386.9402181268662</v>
       </c>
       <c r="AD2" t="n">
-        <v>270713.3424834539</v>
+        <v>312638.3353793954</v>
       </c>
       <c r="AE2" t="n">
-        <v>370401.9382156362</v>
+        <v>427765.5630960118</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.861244387008722e-06</v>
+        <v>5.901600730897145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.930555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>335051.2970947205</v>
+        <v>386940.2181268662</v>
       </c>
     </row>
   </sheetData>
@@ -12859,28 +12859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.1538347529034</v>
+        <v>313.9698535180372</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.7918126913675</v>
+        <v>429.5874049557359</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.6860677608389</v>
+        <v>388.5881859564693</v>
       </c>
       <c r="AD2" t="n">
-        <v>284153.8347529034</v>
+        <v>313969.8535180372</v>
       </c>
       <c r="AE2" t="n">
-        <v>388791.8126913675</v>
+        <v>429587.4049557359</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.280810487116753e-06</v>
+        <v>5.764254605187834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.513888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>351686.0677608389</v>
+        <v>388588.1859564693</v>
       </c>
     </row>
     <row r="3">
@@ -12965,28 +12965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.9375187269002</v>
+        <v>208.7580601758257</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.5126484570742</v>
+        <v>285.6319876880558</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.8405641131872</v>
+        <v>258.3716716702043</v>
       </c>
       <c r="AD3" t="n">
-        <v>188937.5187269002</v>
+        <v>208758.0601758257</v>
       </c>
       <c r="AE3" t="n">
-        <v>258512.6484570742</v>
+        <v>285631.9876880558</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.14386583006009e-06</v>
+        <v>7.280608797125671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.156944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>233840.5641131873</v>
+        <v>258371.6716702043</v>
       </c>
     </row>
     <row r="4">
@@ -13071,28 +13071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.7306869770562</v>
+        <v>209.5512284259818</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.5978962490507</v>
+        <v>286.7172354800323</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.8222373790527</v>
+        <v>259.3533449360697</v>
       </c>
       <c r="AD4" t="n">
-        <v>189730.6869770562</v>
+        <v>209551.2284259818</v>
       </c>
       <c r="AE4" t="n">
-        <v>259597.8962490507</v>
+        <v>286717.2354800323</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.14386583006009e-06</v>
+        <v>7.280608797125671e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.156944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>234822.2373790527</v>
+        <v>259353.3449360697</v>
       </c>
     </row>
   </sheetData>
@@ -13368,28 +13368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>481.2633881758011</v>
+        <v>522.2097639194428</v>
       </c>
       <c r="AB2" t="n">
-        <v>658.4857995443501</v>
+        <v>714.5104372634072</v>
       </c>
       <c r="AC2" t="n">
-        <v>595.6408390264606</v>
+        <v>646.3185639526839</v>
       </c>
       <c r="AD2" t="n">
-        <v>481263.3881758011</v>
+        <v>522209.7639194428</v>
       </c>
       <c r="AE2" t="n">
-        <v>658485.7995443501</v>
+        <v>714510.4372634072</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.467868676549906e-06</v>
+        <v>4.219780411703191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.344444444444443</v>
       </c>
       <c r="AH2" t="n">
-        <v>595640.8390264607</v>
+        <v>646318.5639526839</v>
       </c>
     </row>
     <row r="3">
@@ -13474,28 +13474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.7039537237629</v>
+        <v>216.3923331864376</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.0883421649641</v>
+        <v>296.0775368215246</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.8385074040419</v>
+        <v>267.8203122547985</v>
       </c>
       <c r="AD3" t="n">
-        <v>185703.9537237629</v>
+        <v>216392.3331864376</v>
       </c>
       <c r="AE3" t="n">
-        <v>254088.3421649641</v>
+        <v>296077.5368215246</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.136838264584377e-06</v>
+        <v>7.073532413273193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.977777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>229838.5074040419</v>
+        <v>267820.3122547985</v>
       </c>
     </row>
     <row r="4">
@@ -13580,28 +13580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.6701063006245</v>
+        <v>216.3584857632992</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.0420306273832</v>
+        <v>296.0312252839438</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.7966157746091</v>
+        <v>267.7784206253657</v>
       </c>
       <c r="AD4" t="n">
-        <v>185670.1063006245</v>
+        <v>216358.4857632992</v>
       </c>
       <c r="AE4" t="n">
-        <v>254042.0306273832</v>
+        <v>296031.2252839438</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.14795879755369e-06</v>
+        <v>7.092547285351884e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.965277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>229796.6157746091</v>
+        <v>267778.4206253657</v>
       </c>
     </row>
     <row r="5">
@@ -13686,28 +13686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.6877261621133</v>
+        <v>216.376105624788</v>
       </c>
       <c r="AB5" t="n">
-        <v>254.0661388992057</v>
+        <v>296.0553335557661</v>
       </c>
       <c r="AC5" t="n">
-        <v>229.818423186805</v>
+        <v>267.8002280375615</v>
       </c>
       <c r="AD5" t="n">
-        <v>185687.7261621133</v>
+        <v>216376.105624788</v>
       </c>
       <c r="AE5" t="n">
-        <v>254066.1388992057</v>
+        <v>296055.3335557661</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.158931056750078e-06</v>
+        <v>7.11130862580286e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.951388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>229818.423186805</v>
+        <v>267800.2280375615</v>
       </c>
     </row>
   </sheetData>
@@ -13983,28 +13983,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.1661470654806</v>
+        <v>397.9937178659642</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.7445265382316</v>
+        <v>544.5525630278466</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.1492594440763</v>
+        <v>492.5812306967906</v>
       </c>
       <c r="AD2" t="n">
-        <v>349166.1470654806</v>
+        <v>397993.7178659642</v>
       </c>
       <c r="AE2" t="n">
-        <v>477744.5265382316</v>
+        <v>544552.5630278466</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.284372113795042e-06</v>
+        <v>4.89646159986872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>432149.2594440763</v>
+        <v>492581.2306967906</v>
       </c>
     </row>
   </sheetData>
@@ -14280,28 +14280,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.4116285337631</v>
+        <v>216.5463604590009</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.7931022941864</v>
+        <v>296.2882837310493</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.1896904261959</v>
+        <v>268.0109457750634</v>
       </c>
       <c r="AD2" t="n">
-        <v>188411.6285337631</v>
+        <v>216546.3604590009</v>
       </c>
       <c r="AE2" t="n">
-        <v>257793.1022941864</v>
+        <v>296288.2837310493</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.965570999341739e-06</v>
+        <v>7.306297029452209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.719444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>233189.6904261959</v>
+        <v>268010.9457750634</v>
       </c>
     </row>
     <row r="3">
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.1825505581553</v>
+        <v>216.3172824833931</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.479667701753</v>
+        <v>295.9748491386159</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.906169591356</v>
+        <v>267.7274249402234</v>
       </c>
       <c r="AD3" t="n">
-        <v>188182.5505581553</v>
+        <v>216317.2824833931</v>
       </c>
       <c r="AE3" t="n">
-        <v>257479.667701753</v>
+        <v>295974.8491386159</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.982227573297135e-06</v>
+        <v>7.336985643230999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.695833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>232906.169591356</v>
+        <v>267727.4249402235</v>
       </c>
     </row>
   </sheetData>
@@ -14683,28 +14683,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.2282998931506</v>
+        <v>243.3695926158574</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.1166109992401</v>
+        <v>332.9890133255276</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.1419730373063</v>
+        <v>301.2090092468538</v>
       </c>
       <c r="AD2" t="n">
-        <v>214228.2998931506</v>
+        <v>243369.5926158574</v>
       </c>
       <c r="AE2" t="n">
-        <v>293116.6109992401</v>
+        <v>332989.0133255276</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.768626961892544e-06</v>
+        <v>6.732377039505224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.794444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>265141.9730373063</v>
+        <v>301209.0092468538</v>
       </c>
     </row>
     <row r="3">
@@ -14789,28 +14789,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.4678184349121</v>
+        <v>216.4385189570266</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.5017396789763</v>
+        <v>296.1407302304169</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.0215736465422</v>
+        <v>267.8774745734386</v>
       </c>
       <c r="AD3" t="n">
-        <v>187467.8184349121</v>
+        <v>216438.5189570266</v>
       </c>
       <c r="AE3" t="n">
-        <v>256501.7396789763</v>
+        <v>296140.7302304169</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.107441776363901e-06</v>
+        <v>7.337644979435711e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.316666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>232021.5736465422</v>
+        <v>267877.4745734386</v>
       </c>
     </row>
     <row r="4">
@@ -14895,28 +14895,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.2577096075783</v>
+        <v>217.2284101296929</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.5825036289568</v>
+        <v>297.2214941803975</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.9991910019987</v>
+        <v>268.8550919288951</v>
       </c>
       <c r="AD4" t="n">
-        <v>188257.7096075783</v>
+        <v>217228.4101296929</v>
       </c>
       <c r="AE4" t="n">
-        <v>257582.5036289568</v>
+        <v>297221.4941803975</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.107441776363901e-06</v>
+        <v>7.337644979435711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.316666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>232999.1910019987</v>
+        <v>268855.0919288951</v>
       </c>
     </row>
   </sheetData>
